--- a/result/test.xlsx
+++ b/result/test.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\ts-fuzzy\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3697DA5-219C-4BD2-9B45-2470B37C279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB6D846-8210-4461-B2B9-33891B7321E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3792" yWindow="1548" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +83,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,11 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -417,7 +438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -454,10 +477,10 @@
       <c r="B2">
         <v>0.99845139193326671</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.9444337128813669</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.92557725594799689</v>
       </c>
       <c r="E2">
@@ -483,10 +506,10 @@
       <c r="B3">
         <v>0.96976293317283402</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.93741034584468386</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.84044864886425064</v>
       </c>
       <c r="E3">
@@ -495,13 +518,13 @@
       <c r="F3">
         <v>0.9986164605255744</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>0.89377331698934004</v>
       </c>
       <c r="H3">
         <v>0.99604168875235366</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.95215093941502227</v>
       </c>
     </row>
@@ -512,25 +535,25 @@
       <c r="B4">
         <v>0.98772578412014167</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.82785798015225476</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.76073389797304536</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.94548248762936149</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.95910742654377601</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0.60020471813801834</v>
       </c>
       <c r="H4">
         <v>0.99086769786490236</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.85880765300003858</v>
       </c>
     </row>
@@ -599,25 +622,25 @@
       <c r="B7">
         <v>0.96015419483281605</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.78803296245238319</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.72590924924587497</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.93420982902852001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.94030276116320666</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>0.71457076268670305</v>
       </c>
       <c r="H7">
         <v>0.96874529111509788</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.88288557550788904</v>
       </c>
     </row>
@@ -628,19 +651,19 @@
       <c r="B8">
         <v>0.99227885399932014</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.93207667888968804</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.88352833172917133</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.92332664817341903</v>
       </c>
       <c r="F8">
         <v>0.98497029714494311</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>0.77133296468803758</v>
       </c>
       <c r="H8">
